--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.573149333333333</v>
+        <v>2.274286666666667</v>
       </c>
       <c r="H2">
-        <v>13.719448</v>
+        <v>6.82286</v>
       </c>
       <c r="I2">
-        <v>0.06199325535045235</v>
+        <v>0.03663635825988129</v>
       </c>
       <c r="J2">
-        <v>0.06199325535045234</v>
+        <v>0.03663635825988129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.77686466666668</v>
+        <v>68.46613766666667</v>
       </c>
       <c r="N2">
-        <v>173.330594</v>
+        <v>205.398413</v>
       </c>
       <c r="O2">
-        <v>0.5795494107546101</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="P2">
-        <v>0.57954941075461</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="Q2">
-        <v>264.2222301324569</v>
+        <v>155.7116240134644</v>
       </c>
       <c r="R2">
-        <v>2378.000071192112</v>
+        <v>1401.40461612118</v>
       </c>
       <c r="S2">
-        <v>0.03592815460911474</v>
+        <v>0.01728929507858951</v>
       </c>
       <c r="T2">
-        <v>0.03592815460911473</v>
+        <v>0.01728929507858951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.573149333333333</v>
+        <v>2.274286666666667</v>
       </c>
       <c r="H3">
-        <v>13.719448</v>
+        <v>6.82286</v>
       </c>
       <c r="I3">
-        <v>0.06199325535045235</v>
+        <v>0.03663635825988129</v>
       </c>
       <c r="J3">
-        <v>0.06199325535045234</v>
+        <v>0.03663635825988129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.278736333333335</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N3">
         <v>27.836209</v>
       </c>
       <c r="O3">
-        <v>0.0930733470145044</v>
+        <v>0.06395551407683932</v>
       </c>
       <c r="P3">
-        <v>0.09307334701450438</v>
+        <v>0.06395551407683933</v>
       </c>
       <c r="Q3">
-        <v>42.43304687695912</v>
+        <v>21.10250632641555</v>
       </c>
       <c r="R3">
-        <v>381.8974218926321</v>
+        <v>189.92255693774</v>
       </c>
       <c r="S3">
-        <v>0.005769919767791433</v>
+        <v>0.002343097126413966</v>
       </c>
       <c r="T3">
-        <v>0.005769919767791432</v>
+        <v>0.002343097126413967</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.573149333333333</v>
+        <v>2.274286666666667</v>
       </c>
       <c r="H4">
-        <v>13.719448</v>
+        <v>6.82286</v>
       </c>
       <c r="I4">
-        <v>0.06199325535045235</v>
+        <v>0.03663635825988129</v>
       </c>
       <c r="J4">
-        <v>0.06199325535045234</v>
+        <v>0.03663635825988129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.637132</v>
+        <v>67.336226</v>
       </c>
       <c r="N4">
-        <v>97.91139600000001</v>
+        <v>202.008678</v>
       </c>
       <c r="O4">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="P4">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="Q4">
-        <v>149.254478447712</v>
+        <v>153.1418809754533</v>
       </c>
       <c r="R4">
-        <v>1343.290306029408</v>
+        <v>1378.27692877908</v>
       </c>
       <c r="S4">
-        <v>0.02029518097354618</v>
+        <v>0.01700396605487781</v>
       </c>
       <c r="T4">
-        <v>0.02029518097354618</v>
+        <v>0.01700396605487781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>172.075852</v>
       </c>
       <c r="I5">
-        <v>0.7775489387534139</v>
+        <v>0.9239867975814116</v>
       </c>
       <c r="J5">
-        <v>0.7775489387534138</v>
+        <v>0.9239867975814117</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.77686466666668</v>
+        <v>68.46613766666667</v>
       </c>
       <c r="N5">
-        <v>173.330594</v>
+        <v>205.398413</v>
       </c>
       <c r="O5">
-        <v>0.5795494107546101</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="P5">
-        <v>0.57954941075461</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="Q5">
-        <v>3314.001071135121</v>
+        <v>3927.122990713653</v>
       </c>
       <c r="R5">
-        <v>29826.00964021609</v>
+        <v>35344.10691642288</v>
       </c>
       <c r="S5">
-        <v>0.4506280292874134</v>
+        <v>0.4360444419389665</v>
       </c>
       <c r="T5">
-        <v>0.4506280292874133</v>
+        <v>0.4360444419389666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>172.075852</v>
       </c>
       <c r="I6">
-        <v>0.7775489387534139</v>
+        <v>0.9239867975814116</v>
       </c>
       <c r="J6">
-        <v>0.7775489387534138</v>
+        <v>0.9239867975814117</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.278736333333335</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N6">
         <v>27.836209</v>
       </c>
       <c r="O6">
-        <v>0.0930733470145044</v>
+        <v>0.06395551407683932</v>
       </c>
       <c r="P6">
-        <v>0.09307334701450438</v>
+        <v>0.06395551407683933</v>
       </c>
       <c r="Q6">
-        <v>532.2154866805632</v>
+        <v>532.2154866805631</v>
       </c>
       <c r="R6">
-        <v>4789.939380125069</v>
+        <v>4789.939380125068</v>
       </c>
       <c r="S6">
-        <v>0.07236908219735612</v>
+        <v>0.05909405063953165</v>
       </c>
       <c r="T6">
-        <v>0.0723690821973561</v>
+        <v>0.05909405063953167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>172.075852</v>
       </c>
       <c r="I7">
-        <v>0.7775489387534139</v>
+        <v>0.9239867975814116</v>
       </c>
       <c r="J7">
-        <v>0.7775489387534138</v>
+        <v>0.9239867975814117</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.637132</v>
+        <v>67.336226</v>
       </c>
       <c r="N7">
-        <v>97.91139600000001</v>
+        <v>202.008678</v>
       </c>
       <c r="O7">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="P7">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="Q7">
-        <v>1872.020765245488</v>
+        <v>3862.312819804851</v>
       </c>
       <c r="R7">
-        <v>16848.18688720939</v>
+        <v>34760.81537824366</v>
       </c>
       <c r="S7">
-        <v>0.2545518272686444</v>
+        <v>0.4288483050029134</v>
       </c>
       <c r="T7">
-        <v>0.2545518272686443</v>
+        <v>0.4288483050029135</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.83673133333333</v>
+        <v>2.444408666666666</v>
       </c>
       <c r="H8">
-        <v>35.510194</v>
+        <v>7.333226</v>
       </c>
       <c r="I8">
-        <v>0.1604578058961338</v>
+        <v>0.03937684415870708</v>
       </c>
       <c r="J8">
-        <v>0.1604578058961338</v>
+        <v>0.03937684415870709</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.77686466666668</v>
+        <v>68.46613766666667</v>
       </c>
       <c r="N8">
-        <v>173.330594</v>
+        <v>205.398413</v>
       </c>
       <c r="O8">
-        <v>0.5795494107546101</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="P8">
-        <v>0.57954941075461</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="Q8">
-        <v>683.889224341693</v>
+        <v>167.3592202855931</v>
       </c>
       <c r="R8">
-        <v>6155.003019075237</v>
+        <v>1506.232982570338</v>
       </c>
       <c r="S8">
-        <v>0.09299322685808194</v>
+        <v>0.01858257507731137</v>
       </c>
       <c r="T8">
-        <v>0.0929932268580819</v>
+        <v>0.01858257507731137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.83673133333333</v>
+        <v>2.444408666666666</v>
       </c>
       <c r="H9">
-        <v>35.510194</v>
+        <v>7.333226</v>
       </c>
       <c r="I9">
-        <v>0.1604578058961338</v>
+        <v>0.03937684415870708</v>
       </c>
       <c r="J9">
-        <v>0.1604578058961338</v>
+        <v>0.03937684415870709</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.278736333333335</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N9">
         <v>27.836209</v>
       </c>
       <c r="O9">
-        <v>0.0930733470145044</v>
+        <v>0.06395551407683932</v>
       </c>
       <c r="P9">
-        <v>0.09307334701450438</v>
+        <v>0.06395551407683933</v>
       </c>
       <c r="Q9">
-        <v>109.8299090905051</v>
+        <v>22.68102350891489</v>
       </c>
       <c r="R9">
-        <v>988.4691818145461</v>
+        <v>204.129211580234</v>
       </c>
       <c r="S9">
-        <v>0.01493434504935685</v>
+        <v>0.002518366310893699</v>
       </c>
       <c r="T9">
-        <v>0.01493434504935684</v>
+        <v>0.0025183663108937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.83673133333333</v>
+        <v>2.444408666666666</v>
       </c>
       <c r="H10">
-        <v>35.510194</v>
+        <v>7.333226</v>
       </c>
       <c r="I10">
-        <v>0.1604578058961338</v>
+        <v>0.03937684415870708</v>
       </c>
       <c r="J10">
-        <v>0.1604578058961338</v>
+        <v>0.03937684415870709</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.637132</v>
+        <v>67.336226</v>
       </c>
       <c r="N10">
-        <v>97.91139600000001</v>
+        <v>202.008678</v>
       </c>
       <c r="O10">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="P10">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="Q10">
-        <v>386.316962974536</v>
+        <v>164.5972544150253</v>
       </c>
       <c r="R10">
-        <v>3476.852666770824</v>
+        <v>1481.375289735228</v>
       </c>
       <c r="S10">
-        <v>0.052530233988695</v>
+        <v>0.01827590277050201</v>
       </c>
       <c r="T10">
-        <v>0.052530233988695</v>
+        <v>0.01827590277050202</v>
       </c>
     </row>
   </sheetData>
